--- a/EXCEL FILES/EL_UL_GA_Produktion.xlsx
+++ b/EXCEL FILES/EL_UL_GA_Produktion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PS TOOL DX\EXCEL FILES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370"/>
   </bookViews>
@@ -1867,7 +1872,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1964,6 +1969,17 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2705,31 +2721,31 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="4"/>
-    <col min="2" max="2" width="70.86" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.57" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.29" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.43" style="4" customWidth="1"/>
-    <col min="6" max="7" width="13.86" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.86" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.14" style="6" customWidth="1"/>
-    <col min="10" max="14" width="17.71" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.71" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.86" style="7" customWidth="1"/>
-    <col min="19" max="19" width="11.43" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.43" style="4" customWidth="1"/>
-    <col min="21" max="22" width="11.43" style="4" customWidth="1"/>
-    <col min="23" max="23" width="20.43" style="8" customWidth="1"/>
-    <col min="24" max="24" width="12.29" style="4" customWidth="1"/>
-    <col min="25" max="25" width="16.86" style="4" customWidth="1"/>
-    <col min="26" max="26" width="18.43" style="4" customWidth="1"/>
-    <col min="27" max="27" width="19.57" style="4" customWidth="1"/>
-    <col min="28" max="28" width="15.86" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.14" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="70.85156" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.57422" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.42188" style="4" customWidth="1"/>
+    <col min="6" max="7" width="13.85156" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.85156" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.14063" style="6" customWidth="1"/>
+    <col min="10" max="14" width="17.71094" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.71094" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.00391" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.85156" style="7" customWidth="1"/>
+    <col min="19" max="19" width="11.42188" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.42188" style="4" customWidth="1"/>
+    <col min="21" max="22" width="11.42188" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.42188" style="8" customWidth="1"/>
+    <col min="24" max="24" width="12.28125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="16.85156" style="4" customWidth="1"/>
+    <col min="26" max="26" width="18.42188" style="4" customWidth="1"/>
+    <col min="27" max="27" width="19.57422" style="4" customWidth="1"/>
+    <col min="28" max="28" width="15.85156" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2794,7 +2810,7 @@
     <row r="5">
       <c r="C5" s="23">
         <f>SUMPRODUCT(Q12:Q84,R12:R84)</f>
-        <v>0.011511215339224196</v>
+        <v>0.011511215339224305</v>
       </c>
       <c r="D5" s="24">
         <f>I7</f>
@@ -2881,11 +2897,11 @@
       </c>
       <c r="D8" s="37">
         <f>SUM(N12:N84)</f>
-        <v>9331327.1221029256</v>
+        <v>9331327.1221030094</v>
       </c>
       <c r="E8" s="38">
         <f>W11*SUM(D12:D84)</f>
-        <v>8875306.6089001726</v>
+        <v>8875306.6089001149</v>
       </c>
       <c r="W8" s="4"/>
     </row>
@@ -3004,7 +3020,7 @@
       </c>
       <c r="W11" s="57">
         <f>SUM(W12:W84)/(2*$C$5)</f>
-        <v>0.010948664026008909</v>
+        <v>0.010948664026008841</v>
       </c>
     </row>
     <row r="12">
@@ -3055,11 +3071,11 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12:M84" si="5">IF(ISERROR((E12*NORMDIST(  (1/(1-J12))^0.5    *   NORMINV(G12,0,1)    +    (J12/(1-J12))^0.5  *  NORMINV($F$5,0,1),0,1,TRUE)   - E12*G12   )*( (1+(K12-2.5)*L12) / (1-1.5*L12)  )*12.5*1.06),"n.a.",(E12*NORMDIST(  (1/(1-J12))^0.5    *   NORMINV(G12,0,1)    +    (J12/(1-J12))^0.5  *  NORMINV($F$5,0,1),0,1,TRUE)   - E12*G12   )*( (1+(K12-2.5)*L12) / (1-1.5*L12)  )*12.5*1.06)</f>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" ref="N12:N84" si="6">IF(ISERROR(M12*D12*0.08),0,M12*D12*0.08)</f>
-        <v>2.6131609916333107</v>
+        <v>2.6131609916332836</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" ref="O12:O84" si="7">D12*E12*F12</f>
@@ -3071,11 +3087,11 @@
       </c>
       <c r="Q12" s="7">
         <f t="shared" ref="Q12:Q84" si="9">D12/SUM($D$12:$D$84)</f>
-        <v>1.346016179326026E-06</v>
+        <v>1.3460161793260264E-06</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" ref="R12:R84" si="10">IF(ISERROR(N12/D12),0,N12/D12)</f>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" ref="S12:S84" si="11">E12*G12</f>
@@ -3095,7 +3111,7 @@
       </c>
       <c r="W12" s="8">
         <f t="shared" ref="W12:W84" si="15">IF(ISERROR(Q12^2*(($D$5*V12*(R12+S12) +$D$5*(R12+S12)^2 *(U12^2)/(T12^2))-R12*(V12+2*(R12+S12)*(U12^2)/(T12^2)))),0,Q12^2*(($D$5*V12*(R12+S12)+$D$5*(R12+S12)^2*(U12^2)/(T12^2))-R12*(V12+2*(R12+S12)*(U12^2)/(T12^2))))</f>
-        <v>2.5325915482850098E-15</v>
+        <v>2.5325915482849976E-15</v>
       </c>
     </row>
     <row r="13">
@@ -3146,11 +3162,11 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N13" s="58">
         <f t="shared" si="6"/>
-        <v>3501.9815348259917</v>
+        <v>3501.9815348259558</v>
       </c>
       <c r="O13" s="58">
         <f t="shared" si="7"/>
@@ -3162,11 +3178,11 @@
       </c>
       <c r="Q13" s="7">
         <f t="shared" si="9"/>
-        <v>0.0018038398019367891</v>
+        <v>0.0018038398019367898</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832378</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="11"/>
@@ -3186,7 +3202,7 @@
       </c>
       <c r="W13" s="8">
         <f t="shared" si="15"/>
-        <v>4.5484196145968131E-09</v>
+        <v>4.5484196145967907E-09</v>
       </c>
     </row>
     <row r="14">
@@ -3237,11 +3253,11 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="5"/>
-        <v>0.0090182008941685887</v>
+        <v>0.0090182008941687031</v>
       </c>
       <c r="N14" s="58">
         <f t="shared" si="6"/>
-        <v>238.5649252852819</v>
+        <v>238.56492528528497</v>
       </c>
       <c r="O14" s="58">
         <f t="shared" si="7"/>
@@ -3253,11 +3269,11 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="9"/>
-        <v>0.00040791949715997976</v>
+        <v>0.00040791949715997987</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="10"/>
-        <v>0.00072145607153348702</v>
+        <v>0.00072145607153349634</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="11"/>
@@ -3277,7 +3293,7 @@
       </c>
       <c r="W14" s="8">
         <f t="shared" si="15"/>
-        <v>6.9942140574877175E-11</v>
+        <v>6.9942140574877718E-11</v>
       </c>
     </row>
     <row r="15">
@@ -3328,11 +3344,11 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N15" s="58">
         <f t="shared" si="6"/>
-        <v>8487.032752921823</v>
+        <v>8487.0327529217338</v>
       </c>
       <c r="O15" s="58">
         <f t="shared" si="7"/>
@@ -3344,11 +3360,11 @@
       </c>
       <c r="Q15" s="7">
         <f t="shared" si="9"/>
-        <v>0.0043715957174006725</v>
+        <v>0.0043715957174006743</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832387</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="11"/>
@@ -3368,7 +3384,7 @@
       </c>
       <c r="W15" s="8">
         <f t="shared" si="15"/>
-        <v>2.6714347838797942E-08</v>
+        <v>2.671434783879781E-08</v>
       </c>
     </row>
     <row r="16">
@@ -3510,11 +3526,11 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N17" s="58">
         <f t="shared" si="6"/>
-        <v>2419.43159811645</v>
+        <v>2419.431598116425</v>
       </c>
       <c r="O17" s="58">
         <f t="shared" si="7"/>
@@ -3526,11 +3542,11 @@
       </c>
       <c r="Q17" s="7">
         <f t="shared" si="9"/>
-        <v>0.0012462278773730999</v>
+        <v>0.0012462278773731001</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="11"/>
@@ -3550,7 +3566,7 @@
       </c>
       <c r="W17" s="8">
         <f t="shared" si="15"/>
-        <v>2.1709984664516901E-09</v>
+        <v>2.170998466451679E-09</v>
       </c>
     </row>
     <row r="18">
@@ -3601,11 +3617,11 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" si="5"/>
-        <v>0.042748456991001875</v>
+        <v>0.042748456991003179</v>
       </c>
       <c r="N18" s="58">
         <f t="shared" si="6"/>
-        <v>39352.341460465475</v>
+        <v>39352.341460466676</v>
       </c>
       <c r="O18" s="58">
         <f t="shared" si="7"/>
@@ -3617,11 +3633,11 @@
       </c>
       <c r="Q18" s="7">
         <f t="shared" si="9"/>
-        <v>0.014195082186177472</v>
+        <v>0.014195082186177477</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="10"/>
-        <v>0.0034198765592801496</v>
+        <v>0.0034198765592802541</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="11"/>
@@ -3641,7 +3657,7 @@
       </c>
       <c r="W18" s="8">
         <f t="shared" si="15"/>
-        <v>3.9045272180031943E-07</v>
+        <v>3.9045272180032668E-07</v>
       </c>
     </row>
     <row r="19">
@@ -3692,11 +3708,11 @@
       </c>
       <c r="M19" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N19" s="58">
         <f t="shared" si="6"/>
-        <v>28.421023654823784</v>
+        <v>28.42102365482349</v>
       </c>
       <c r="O19" s="58">
         <f t="shared" si="7"/>
@@ -3708,11 +3724,11 @@
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="9"/>
-        <v>1.4639418617867016E-05</v>
+        <v>1.463941861786702E-05</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="11"/>
@@ -3732,7 +3748,7 @@
       </c>
       <c r="W19" s="8">
         <f t="shared" si="15"/>
-        <v>2.9957961082055542E-13</v>
+        <v>2.9957961082055396E-13</v>
       </c>
       <c r="X19" s="13"/>
     </row>
@@ -3784,11 +3800,11 @@
       </c>
       <c r="M20" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N20" s="58">
         <f t="shared" si="6"/>
-        <v>99092.39293764194</v>
+        <v>99092.392937640921</v>
       </c>
       <c r="O20" s="58">
         <f t="shared" si="7"/>
@@ -3800,11 +3816,11 @@
       </c>
       <c r="Q20" s="7">
         <f t="shared" si="9"/>
-        <v>0.051041617630619568</v>
+        <v>0.051041617630619582</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="11"/>
@@ -3824,7 +3840,7 @@
       </c>
       <c r="W20" s="8">
         <f t="shared" si="15"/>
-        <v>3.6417778685071959E-06</v>
+        <v>3.6417778685071781E-06</v>
       </c>
       <c r="X20" s="13"/>
     </row>
@@ -3876,11 +3892,11 @@
       </c>
       <c r="M21" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290471</v>
+        <v>0.029936681937290162</v>
       </c>
       <c r="N21" s="58">
         <f t="shared" si="6"/>
-        <v>17822.76878147111</v>
+        <v>17822.768781470928</v>
       </c>
       <c r="O21" s="58">
         <f t="shared" si="7"/>
@@ -3892,11 +3908,11 @@
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="9"/>
-        <v>0.0091803510067141169</v>
+        <v>0.0091803510067141204</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832374</v>
+        <v>0.0023949345549832131</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="11"/>
@@ -3916,7 +3932,7 @@
       </c>
       <c r="W21" s="8">
         <f t="shared" si="15"/>
-        <v>1.1781027397353149E-07</v>
+        <v>1.1781027397353093E-07</v>
       </c>
       <c r="X21" s="13"/>
     </row>
@@ -3968,11 +3984,11 @@
       </c>
       <c r="M22" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N22" s="58">
         <f t="shared" si="6"/>
-        <v>248.11773457754623</v>
+        <v>248.11773457754367</v>
       </c>
       <c r="O22" s="58">
         <f t="shared" si="7"/>
@@ -3984,11 +4000,11 @@
       </c>
       <c r="Q22" s="7">
         <f t="shared" si="9"/>
-        <v>0.00012780325674093099</v>
+        <v>0.00012780325674093102</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="11"/>
@@ -4008,7 +4024,7 @@
       </c>
       <c r="W22" s="8">
         <f t="shared" si="15"/>
-        <v>2.2832235460511717E-11</v>
+        <v>2.2832235460511604E-11</v>
       </c>
       <c r="X22" s="13"/>
     </row>
@@ -4060,11 +4076,11 @@
       </c>
       <c r="M23" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N23" s="58">
         <f t="shared" si="6"/>
-        <v>9547.9118469771765</v>
+        <v>9547.9118469770783</v>
       </c>
       <c r="O23" s="58">
         <f t="shared" si="7"/>
@@ -4076,11 +4092,11 @@
       </c>
       <c r="Q23" s="7">
         <f t="shared" si="9"/>
-        <v>0.0049180451820449167</v>
+        <v>0.0049180451820449184</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832135</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="11"/>
@@ -4100,7 +4116,7 @@
       </c>
       <c r="W23" s="8">
         <f t="shared" si="15"/>
-        <v>3.3810346483054599E-08</v>
+        <v>3.381034648305444E-08</v>
       </c>
       <c r="X23" s="13"/>
     </row>
@@ -4152,11 +4168,11 @@
       </c>
       <c r="M24" s="4">
         <f t="shared" si="5"/>
-        <v>0.039467048897265863</v>
+        <v>0.039467048897267057</v>
       </c>
       <c r="N24" s="58">
         <f t="shared" si="6"/>
-        <v>32920.343732187641</v>
+        <v>32920.343732188638</v>
       </c>
       <c r="O24" s="58">
         <f t="shared" si="7"/>
@@ -4168,11 +4184,11 @@
       </c>
       <c r="Q24" s="7">
         <f t="shared" si="9"/>
-        <v>0.012862265924252325</v>
+        <v>0.012862265924252329</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0031573639117812688</v>
+        <v>0.0031573639117813647</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="11"/>
@@ -4192,7 +4208,7 @@
       </c>
       <c r="W24" s="8">
         <f t="shared" si="15"/>
-        <v>3.0640992776460854E-07</v>
+        <v>3.0640992776461378E-07</v>
       </c>
       <c r="X24" s="13"/>
     </row>
@@ -4244,11 +4260,11 @@
       </c>
       <c r="M25" s="4">
         <f t="shared" si="5"/>
-        <v>0.077871676957287389</v>
+        <v>0.077871676957289776</v>
       </c>
       <c r="N25" s="58">
         <f t="shared" si="6"/>
-        <v>81384.278920912257</v>
+        <v>81384.27892091476</v>
       </c>
       <c r="O25" s="58">
         <f t="shared" si="7"/>
@@ -4260,11 +4276,11 @@
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="9"/>
-        <v>0.016115684980387984</v>
+        <v>0.016115684980387991</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="10"/>
-        <v>0.0062297341565829912</v>
+        <v>0.006229734156583182</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="11"/>
@@ -4284,7 +4300,7 @@
       </c>
       <c r="W25" s="8">
         <f t="shared" si="15"/>
-        <v>7.4123420422823618E-07</v>
+        <v>7.4123420422825302E-07</v>
       </c>
       <c r="X25" s="13"/>
     </row>
@@ -4336,11 +4352,11 @@
       </c>
       <c r="M26" s="4">
         <f t="shared" si="5"/>
-        <v>0.057994636491585178</v>
+        <v>0.057994636491586954</v>
       </c>
       <c r="N26" s="58">
         <f t="shared" si="6"/>
-        <v>130088.92900700454</v>
+        <v>130088.92900700853</v>
       </c>
       <c r="O26" s="58">
         <f t="shared" si="7"/>
@@ -4352,11 +4368,11 @@
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="9"/>
-        <v>0.034589181439367303</v>
+        <v>0.03458918143936731</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="10"/>
-        <v>0.0046395709193268143</v>
+        <v>0.0046395709193269566</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="11"/>
@@ -4376,7 +4392,7 @@
       </c>
       <c r="W26" s="8">
         <f t="shared" si="15"/>
-        <v>2.794204202830839E-06</v>
+        <v>2.7942042028308953E-06</v>
       </c>
       <c r="X26" s="13"/>
     </row>
@@ -4428,11 +4444,11 @@
       </c>
       <c r="M27" s="4">
         <f t="shared" si="5"/>
-        <v>0.062366734441243021</v>
+        <v>0.06236673444124493</v>
       </c>
       <c r="N27" s="58">
         <f t="shared" si="6"/>
-        <v>65178.237956079684</v>
+        <v>65178.237956081677</v>
       </c>
       <c r="O27" s="58">
         <f t="shared" si="7"/>
@@ -4444,11 +4460,11 @@
       </c>
       <c r="Q27" s="7">
         <f t="shared" si="9"/>
-        <v>0.016115262629446462</v>
+        <v>0.016115262629446469</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="10"/>
-        <v>0.0049893387552994413</v>
+        <v>0.004989338755299594</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="11"/>
@@ -4468,7 +4484,7 @@
       </c>
       <c r="W27" s="8">
         <f t="shared" si="15"/>
-        <v>6.3615162667065412E-07</v>
+        <v>6.3615162667066736E-07</v>
       </c>
       <c r="X27" s="13"/>
     </row>
@@ -4520,11 +4536,11 @@
       </c>
       <c r="M28" s="4">
         <f t="shared" si="5"/>
-        <v>0.082489955015138075</v>
+        <v>0.082489955015140573</v>
       </c>
       <c r="N28" s="58">
         <f t="shared" si="6"/>
-        <v>198782.69876768545</v>
+        <v>198782.69876769147</v>
       </c>
       <c r="O28" s="58">
         <f t="shared" si="7"/>
@@ -4536,11 +4552,11 @@
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="9"/>
-        <v>0.037159109053099722</v>
+        <v>0.037159109053099729</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="10"/>
-        <v>0.006599196401211046</v>
+        <v>0.0065991964012112464</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="11"/>
@@ -4560,7 +4576,7 @@
       </c>
       <c r="W28" s="8">
         <f t="shared" si="15"/>
-        <v>4.1071853221219949E-06</v>
+        <v>4.1071853221220873E-06</v>
       </c>
       <c r="X28" s="13"/>
     </row>
@@ -4612,11 +4628,11 @@
       </c>
       <c r="M29" s="4">
         <f t="shared" si="5"/>
-        <v>0.039467048897265863</v>
+        <v>0.039467048897267057</v>
       </c>
       <c r="N29" s="58">
         <f t="shared" si="6"/>
-        <v>709.0393942669541</v>
+        <v>709.03939426697548</v>
       </c>
       <c r="O29" s="58">
         <f t="shared" si="7"/>
@@ -4628,11 +4644,11 @@
       </c>
       <c r="Q29" s="7">
         <f t="shared" si="9"/>
-        <v>0.00027702788628283602</v>
+        <v>0.00027702788628283608</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="10"/>
-        <v>0.0031573639117812697</v>
+        <v>0.0031573639117813647</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="11"/>
@@ -4652,7 +4668,7 @@
       </c>
       <c r="W29" s="8">
         <f t="shared" si="15"/>
-        <v>1.4213951873645881E-10</v>
+        <v>1.4213951873646121E-10</v>
       </c>
       <c r="X29" s="61"/>
     </row>
@@ -4704,11 +4720,11 @@
       </c>
       <c r="M30" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290169</v>
       </c>
       <c r="N30" s="58">
         <f t="shared" si="6"/>
-        <v>766.37905759463627</v>
+        <v>766.37905759462842</v>
       </c>
       <c r="O30" s="58">
         <f t="shared" si="7"/>
@@ -4720,11 +4736,11 @@
       </c>
       <c r="Q30" s="7">
         <f t="shared" si="9"/>
-        <v>0.00039475509328426605</v>
+        <v>0.00039475509328426616</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832139</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="11"/>
@@ -4744,7 +4760,7 @@
       </c>
       <c r="W30" s="8">
         <f t="shared" si="15"/>
-        <v>2.1783119657215851E-10</v>
+        <v>2.178311965721574E-10</v>
       </c>
       <c r="X30" s="61"/>
     </row>
@@ -4796,11 +4812,11 @@
       </c>
       <c r="M31" s="4">
         <f t="shared" si="5"/>
-        <v>0.0090182008941685887</v>
+        <v>0.0090182008941687031</v>
       </c>
       <c r="N31" s="58">
         <f t="shared" si="6"/>
-        <v>36064.085977666953</v>
+        <v>36064.085977667412</v>
       </c>
       <c r="O31" s="58">
         <f t="shared" si="7"/>
@@ -4812,11 +4828,11 @@
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="9"/>
-        <v>0.061665577200638803</v>
+        <v>0.061665577200638817</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="10"/>
-        <v>0.00072145607153348724</v>
+        <v>0.00072145607153349634</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="11"/>
@@ -4836,7 +4852,7 @@
       </c>
       <c r="W31" s="8">
         <f t="shared" si="15"/>
-        <v>1.5983636503958745E-06</v>
+        <v>1.5983636503958868E-06</v>
       </c>
       <c r="X31" s="61"/>
     </row>
@@ -4888,11 +4904,11 @@
       </c>
       <c r="M32" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290478</v>
+        <v>0.029936681937290103</v>
       </c>
       <c r="N32" s="58">
         <f t="shared" si="6"/>
-        <v>38788.562544225155</v>
+        <v>38788.562544224667</v>
       </c>
       <c r="O32" s="58">
         <f t="shared" si="7"/>
@@ -4904,11 +4920,11 @@
       </c>
       <c r="Q32" s="7">
         <f t="shared" si="9"/>
-        <v>0.019979646460547222</v>
+        <v>0.019979646460547226</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832382</v>
+        <v>0.0023949345549832083</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="11"/>
@@ -4928,7 +4944,7 @@
       </c>
       <c r="W32" s="8">
         <f t="shared" si="15"/>
-        <v>5.5800769898411514E-07</v>
+        <v>5.5800769898411143E-07</v>
       </c>
       <c r="X32" s="13"/>
     </row>
@@ -4980,11 +4996,11 @@
       </c>
       <c r="M33" s="4">
         <f t="shared" si="5"/>
-        <v>0.195861595017358</v>
+        <v>0.19586159501736425</v>
       </c>
       <c r="N33" s="58">
         <f t="shared" si="6"/>
-        <v>157429.41520164762</v>
+        <v>157429.41520165265</v>
       </c>
       <c r="O33" s="58">
         <f t="shared" si="7"/>
@@ -4996,11 +5012,11 @@
       </c>
       <c r="Q33" s="7">
         <f t="shared" si="9"/>
-        <v>0.0123943675870378</v>
+        <v>0.012394367587037805</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="10"/>
-        <v>0.015668927601388639</v>
+        <v>0.015668927601389139</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="11"/>
@@ -5020,7 +5036,7 @@
       </c>
       <c r="W33" s="8">
         <f t="shared" si="15"/>
-        <v>1.1639146857934134E-06</v>
+        <v>1.1639146857934397E-06</v>
       </c>
       <c r="X33" s="61"/>
     </row>
@@ -5072,11 +5088,11 @@
       </c>
       <c r="M34" s="4">
         <f t="shared" si="5"/>
-        <v>0.062593285910471141</v>
+        <v>0.062593285910473057</v>
       </c>
       <c r="N34" s="58">
         <f t="shared" si="6"/>
-        <v>150557.55011119926</v>
+        <v>150557.55011120389</v>
       </c>
       <c r="O34" s="58">
         <f t="shared" si="7"/>
@@ -5088,11 +5104,11 @@
       </c>
       <c r="Q34" s="7">
         <f t="shared" si="9"/>
-        <v>0.037090489515399915</v>
+        <v>0.037090489515399928</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="10"/>
-        <v>0.0050074628728376909</v>
+        <v>0.0050074628728378453</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="11"/>
@@ -5112,7 +5128,7 @@
       </c>
       <c r="W34" s="8">
         <f t="shared" si="15"/>
-        <v>3.3779840708553001E-06</v>
+        <v>3.3779840708553713E-06</v>
       </c>
       <c r="X34" s="13"/>
     </row>
@@ -5164,11 +5180,11 @@
       </c>
       <c r="M35" s="4">
         <f t="shared" si="5"/>
-        <v>0.046029865084737893</v>
+        <v>0.046029865084739288</v>
       </c>
       <c r="N35" s="58">
         <f t="shared" si="6"/>
-        <v>94.75980523145445</v>
+        <v>94.759805231457321</v>
       </c>
       <c r="O35" s="58">
         <f t="shared" si="7"/>
@@ -5180,11 +5196,11 @@
       </c>
       <c r="Q35" s="7">
         <f t="shared" si="9"/>
-        <v>3.1744773614707525E-05</v>
+        <v>3.1744773614707532E-05</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="10"/>
-        <v>0.0036823892067790313</v>
+        <v>0.0036823892067791432</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="11"/>
@@ -5204,7 +5220,7 @@
       </c>
       <c r="W35" s="8">
         <f t="shared" si="15"/>
-        <v>2.0389802979421879E-12</v>
+        <v>2.0389802979422255E-12</v>
       </c>
       <c r="X35" s="13"/>
     </row>
@@ -5256,11 +5272,11 @@
       </c>
       <c r="M36" s="4">
         <f t="shared" si="5"/>
-        <v>0.13541889788977332</v>
+        <v>0.13541889788977654</v>
       </c>
       <c r="N36" s="58">
         <f t="shared" si="6"/>
-        <v>215208.41670469681</v>
+        <v>215208.4167047019</v>
       </c>
       <c r="O36" s="58">
         <f t="shared" si="7"/>
@@ -5272,11 +5288,11 @@
       </c>
       <c r="Q36" s="7">
         <f t="shared" si="9"/>
-        <v>0.024505736209915654</v>
+        <v>0.024505736209915661</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="10"/>
-        <v>0.010833511831181867</v>
+        <v>0.010833511831182124</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="11"/>
@@ -5296,7 +5312,7 @@
       </c>
       <c r="W36" s="8">
         <f t="shared" si="15"/>
-        <v>4.0973642928245277E-06</v>
+        <v>4.0973642928245794E-06</v>
       </c>
       <c r="X36" s="13"/>
     </row>
@@ -5348,11 +5364,11 @@
       </c>
       <c r="M37" s="4">
         <f t="shared" si="5"/>
-        <v>0.062249490072545155</v>
+        <v>0.062249490072544884</v>
       </c>
       <c r="N37" s="58">
         <f t="shared" si="6"/>
-        <v>104736.94577920977</v>
+        <v>104736.9457792093</v>
       </c>
       <c r="O37" s="58">
         <f t="shared" si="7"/>
@@ -5364,11 +5380,11 @@
       </c>
       <c r="Q37" s="7">
         <f t="shared" si="9"/>
-        <v>0.025944893003087603</v>
+        <v>0.02594489300308761</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="10"/>
-        <v>0.0049799592058036128</v>
+        <v>0.0049799592058035903</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="11"/>
@@ -5388,7 +5404,7 @@
       </c>
       <c r="W37" s="8">
         <f t="shared" si="15"/>
-        <v>1.8129091349590017E-06</v>
+        <v>1.8129091349589973E-06</v>
       </c>
       <c r="X37" s="13"/>
     </row>
@@ -5440,11 +5456,11 @@
       </c>
       <c r="M38" s="4">
         <f t="shared" si="5"/>
-        <v>0.043477658789609887</v>
+        <v>0.043477658789611205</v>
       </c>
       <c r="N38" s="58">
         <f t="shared" si="6"/>
-        <v>10448.985736906945</v>
+        <v>10448.985736907262</v>
       </c>
       <c r="O38" s="58">
         <f t="shared" si="7"/>
@@ -5456,11 +5472,11 @@
       </c>
       <c r="Q38" s="7">
         <f t="shared" si="9"/>
-        <v>0.0037059176394143617</v>
+        <v>0.003705917639414363</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="10"/>
-        <v>0.003478212703168791</v>
+        <v>0.0034782127031688964</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="11"/>
@@ -5480,7 +5496,7 @@
       </c>
       <c r="W38" s="8">
         <f t="shared" si="15"/>
-        <v>2.687369112091219E-08</v>
+        <v>2.687369112091268E-08</v>
       </c>
       <c r="X38" s="13"/>
     </row>
@@ -5532,11 +5548,11 @@
       </c>
       <c r="M39" s="4">
         <f t="shared" si="5"/>
-        <v>0.44640545878451093</v>
+        <v>0.4464054587845126</v>
       </c>
       <c r="N39" s="58">
         <f t="shared" si="6"/>
-        <v>1334260.3633082672</v>
+        <v>1334260.3633082721</v>
       </c>
       <c r="O39" s="58">
         <f t="shared" si="7"/>
@@ -5548,11 +5564,11 @@
       </c>
       <c r="Q39" s="7">
         <f t="shared" si="9"/>
-        <v>0.046089167634294229</v>
+        <v>0.046089167634294242</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="10"/>
-        <v>0.035712436702760877</v>
+        <v>0.035712436702761009</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="11"/>
@@ -5572,7 +5588,7 @@
       </c>
       <c r="W39" s="8">
         <f t="shared" si="15"/>
-        <v>5.7295863609689843E-05</v>
+        <v>5.7295863609689959E-05</v>
       </c>
       <c r="X39" s="13"/>
     </row>
@@ -5624,11 +5640,11 @@
       </c>
       <c r="M40" s="4">
         <f t="shared" si="5"/>
-        <v>0.022257665155927465</v>
+        <v>0.022257665155927742</v>
       </c>
       <c r="N40" s="58">
         <f t="shared" si="6"/>
-        <v>539.24961246429496</v>
+        <v>539.24961246430166</v>
       </c>
       <c r="O40" s="58">
         <f t="shared" si="7"/>
@@ -5640,11 +5656,11 @@
       </c>
       <c r="Q40" s="7">
         <f t="shared" si="9"/>
-        <v>0.00037359238375816659</v>
+        <v>0.00037359238375816669</v>
       </c>
       <c r="R40" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017806132124741974</v>
+        <v>0.0017806132124742195</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="11"/>
@@ -5664,7 +5680,7 @@
       </c>
       <c r="W40" s="8">
         <f t="shared" si="15"/>
-        <v>1.0687955948183273E-10</v>
+        <v>1.0687955948183379E-10</v>
       </c>
       <c r="X40" s="61"/>
     </row>
@@ -5808,11 +5824,11 @@
       </c>
       <c r="M42" s="4">
         <f t="shared" si="5"/>
-        <v>0.10939125407327353</v>
+        <v>0.10939125407327702</v>
       </c>
       <c r="N42" s="58">
         <f t="shared" si="6"/>
-        <v>35281.963014025983</v>
+        <v>35281.963014027104</v>
       </c>
       <c r="O42" s="58">
         <f t="shared" si="7"/>
@@ -5824,11 +5840,11 @@
       </c>
       <c r="Q42" s="7">
         <f t="shared" si="9"/>
-        <v>0.0049734518308148399</v>
+        <v>0.0049734518308148417</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="10"/>
-        <v>0.0087513003258618827</v>
+        <v>0.008751300325862162</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="11"/>
@@ -5848,7 +5864,7 @@
       </c>
       <c r="W42" s="8">
         <f t="shared" si="15"/>
-        <v>1.3162392063709905E-07</v>
+        <v>1.3162392063710133E-07</v>
       </c>
       <c r="X42" s="13"/>
     </row>
@@ -5900,11 +5916,11 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="5"/>
-        <v>0.10671691363170392</v>
+        <v>0.10671691363170728</v>
       </c>
       <c r="N43" s="58">
         <f t="shared" si="6"/>
-        <v>116451.96191323493</v>
+        <v>116451.9619132386</v>
       </c>
       <c r="O43" s="58">
         <f t="shared" si="7"/>
@@ -5916,11 +5932,11 @@
       </c>
       <c r="Q43" s="7">
         <f t="shared" si="9"/>
-        <v>0.016826792142385725</v>
+        <v>0.016826792142385728</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="10"/>
-        <v>0.0085373530905363138</v>
+        <v>0.0085373530905365827</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="11"/>
@@ -5940,7 +5956,7 @@
       </c>
       <c r="W43" s="8">
         <f t="shared" si="15"/>
-        <v>1.4869294580225675E-06</v>
+        <v>1.4869294580225932E-06</v>
       </c>
       <c r="X43" s="13"/>
     </row>
@@ -5992,11 +6008,11 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="5"/>
-        <v>0.22678435183648521</v>
+        <v>0.2267843518364879</v>
       </c>
       <c r="N44" s="58">
         <f t="shared" si="6"/>
-        <v>55382.930725300801</v>
+        <v>55382.930725301456</v>
       </c>
       <c r="O44" s="58">
         <f t="shared" si="7"/>
@@ -6008,11 +6024,11 @@
       </c>
       <c r="Q44" s="7">
         <f t="shared" si="9"/>
-        <v>0.0037657425517518524</v>
+        <v>0.0037657425517518533</v>
       </c>
       <c r="R44" s="7">
         <f t="shared" si="10"/>
-        <v>0.018142748146918818</v>
+        <v>0.018142748146919033</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="11"/>
@@ -6032,7 +6048,7 @@
       </c>
       <c r="W44" s="8">
         <f t="shared" si="15"/>
-        <v>1.4513010584433098E-07</v>
+        <v>1.4513010584433204E-07</v>
       </c>
       <c r="X44" s="13"/>
     </row>
@@ -6084,11 +6100,11 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="5"/>
-        <v>0.051533839364002472</v>
+        <v>0.05153383936400225</v>
       </c>
       <c r="N45" s="58">
         <f t="shared" si="6"/>
-        <v>24813.681063596472</v>
+        <v>24813.681063596363</v>
       </c>
       <c r="O45" s="58">
         <f t="shared" si="7"/>
@@ -6100,11 +6116,11 @@
       </c>
       <c r="Q45" s="7">
         <f t="shared" si="9"/>
-        <v>0.007424829296537299</v>
+        <v>0.0074248292965373008</v>
       </c>
       <c r="R45" s="7">
         <f t="shared" si="10"/>
-        <v>0.0041227071491201977</v>
+        <v>0.0041227071491201795</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="11"/>
@@ -6124,7 +6140,7 @@
       </c>
       <c r="W45" s="8">
         <f t="shared" si="15"/>
-        <v>1.3306061742235073E-07</v>
+        <v>1.3306061742235044E-07</v>
       </c>
       <c r="X45" s="13"/>
     </row>
@@ -6176,11 +6192,11 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="5"/>
-        <v>0.052385796987635333</v>
+        <v>0.052385796987635104</v>
       </c>
       <c r="N46" s="58">
         <f t="shared" si="6"/>
-        <v>84327.629265071344</v>
+        <v>84327.629265070966</v>
       </c>
       <c r="O46" s="58">
         <f t="shared" si="7"/>
@@ -6192,11 +6208,11 @@
       </c>
       <c r="Q46" s="7">
         <f t="shared" si="9"/>
-        <v>0.024822419576841163</v>
+        <v>0.02482241957684117</v>
       </c>
       <c r="R46" s="7">
         <f t="shared" si="10"/>
-        <v>0.0041908637590108277</v>
+        <v>0.0041908637590108086</v>
       </c>
       <c r="S46" s="4">
         <f t="shared" si="11"/>
@@ -6216,7 +6232,7 @@
       </c>
       <c r="W46" s="8">
         <f t="shared" si="15"/>
-        <v>1.5008796677125956E-06</v>
+        <v>1.5008796677125927E-06</v>
       </c>
       <c r="X46" s="13"/>
     </row>
@@ -6268,11 +6284,11 @@
       </c>
       <c r="M47" s="4">
         <f t="shared" si="5"/>
-        <v>0.6164580148027704</v>
+        <v>0.61645801480276941</v>
       </c>
       <c r="N47" s="58">
         <f t="shared" si="6"/>
-        <v>1754871.1269064967</v>
+        <v>1754871.1269064939</v>
       </c>
       <c r="O47" s="58">
         <f t="shared" si="7"/>
@@ -6284,11 +6300,11 @@
       </c>
       <c r="Q47" s="7">
         <f t="shared" si="9"/>
-        <v>0.043896460376332602</v>
+        <v>0.043896460376332616</v>
       </c>
       <c r="R47" s="7">
         <f t="shared" si="10"/>
-        <v>0.049316641184221632</v>
+        <v>0.049316641184221556</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" si="11"/>
@@ -6308,7 +6324,7 @@
       </c>
       <c r="W47" s="8">
         <f t="shared" si="15"/>
-        <v>9.0505357398700954E-05</v>
+        <v>9.0505357398700927E-05</v>
       </c>
       <c r="X47" s="62"/>
     </row>
@@ -6360,11 +6376,11 @@
       </c>
       <c r="M48" s="4">
         <f t="shared" si="5"/>
-        <v>0.048217470480561901</v>
+        <v>0.048217470480563372</v>
       </c>
       <c r="N48" s="58">
         <f t="shared" si="6"/>
-        <v>68444.476158130245</v>
+        <v>68444.47615813234</v>
       </c>
       <c r="O48" s="58">
         <f t="shared" si="7"/>
@@ -6376,11 +6392,11 @@
       </c>
       <c r="Q48" s="7">
         <f t="shared" si="9"/>
-        <v>0.021888790143540615</v>
+        <v>0.021888790143540622</v>
       </c>
       <c r="R48" s="7">
         <f t="shared" si="10"/>
-        <v>0.0038573976384449521</v>
+        <v>0.0038573976384450701</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="11"/>
@@ -6400,7 +6416,7 @@
       </c>
       <c r="W48" s="8">
         <f t="shared" si="15"/>
-        <v>9.9676528506421536E-07</v>
+        <v>9.9676528506423442E-07</v>
       </c>
       <c r="X48" s="61"/>
     </row>
@@ -6452,11 +6468,11 @@
       </c>
       <c r="M49" s="4">
         <f t="shared" si="5"/>
-        <v>0.059581624193649659</v>
+        <v>0.059581624193649402</v>
       </c>
       <c r="N49" s="58">
         <f t="shared" si="6"/>
-        <v>143299.10232480406</v>
+        <v>143299.10232480345</v>
       </c>
       <c r="O49" s="58">
         <f t="shared" si="7"/>
@@ -6468,11 +6484,11 @@
       </c>
       <c r="Q49" s="7">
         <f t="shared" si="9"/>
-        <v>0.037086761275593585</v>
+        <v>0.037086761275593599</v>
       </c>
       <c r="R49" s="7">
         <f t="shared" si="10"/>
-        <v>0.0047665299354919732</v>
+        <v>0.0047665299354919524</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" si="11"/>
@@ -6492,7 +6508,7 @@
       </c>
       <c r="W49" s="8">
         <f t="shared" si="15"/>
-        <v>3.6086029093834742E-06</v>
+        <v>3.6086029093834678E-06</v>
       </c>
       <c r="X49" s="61"/>
     </row>
@@ -6544,11 +6560,11 @@
       </c>
       <c r="M50" s="4">
         <f t="shared" si="5"/>
-        <v>0.076950575135716279</v>
+        <v>0.076950575135715946</v>
       </c>
       <c r="N50" s="58">
         <f t="shared" si="6"/>
-        <v>92425.720548384503</v>
+        <v>92425.720548384095</v>
       </c>
       <c r="O50" s="58">
         <f t="shared" si="7"/>
@@ -6560,11 +6576,11 @@
       </c>
       <c r="Q50" s="7">
         <f t="shared" si="9"/>
-        <v>0.018521184231218686</v>
+        <v>0.018521184231218693</v>
       </c>
       <c r="R50" s="7">
         <f t="shared" si="10"/>
-        <v>0.0061560460108573021</v>
+        <v>0.0061560460108572752</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="11"/>
@@ -6584,7 +6600,7 @@
       </c>
       <c r="W50" s="8">
         <f t="shared" si="15"/>
-        <v>1.0554266746846606E-06</v>
+        <v>1.0554266746846583E-06</v>
       </c>
       <c r="X50" s="13"/>
     </row>
@@ -6636,11 +6652,11 @@
       </c>
       <c r="M51" s="4">
         <f t="shared" si="5"/>
-        <v>0.05607761335671109</v>
+        <v>0.056077613356710847</v>
       </c>
       <c r="N51" s="58">
         <f t="shared" si="6"/>
-        <v>31433.469489113122</v>
+        <v>31433.469489112988</v>
       </c>
       <c r="O51" s="58">
         <f t="shared" si="7"/>
@@ -6652,11 +6668,11 @@
       </c>
       <c r="Q51" s="7">
         <f t="shared" si="9"/>
-        <v>0.0086435186638477938</v>
+        <v>0.0086435186638477973</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="10"/>
-        <v>0.0044862090685368877</v>
+        <v>0.0044862090685368686</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" si="11"/>
@@ -6676,7 +6692,7 @@
       </c>
       <c r="W51" s="8">
         <f t="shared" si="15"/>
-        <v>1.8918219863436249E-07</v>
+        <v>1.8918219863436212E-07</v>
       </c>
     </row>
     <row r="52">
@@ -6727,11 +6743,11 @@
       </c>
       <c r="M52" s="4">
         <f t="shared" si="5"/>
-        <v>0.13123170101275877</v>
+        <v>0.13123170101276296</v>
       </c>
       <c r="N52" s="58">
         <f t="shared" si="6"/>
-        <v>211356.52838310876</v>
+        <v>211356.52838311554</v>
       </c>
       <c r="O52" s="58">
         <f t="shared" si="7"/>
@@ -6743,11 +6759,11 @@
       </c>
       <c r="Q52" s="7">
         <f t="shared" si="9"/>
-        <v>0.024835029806246391</v>
+        <v>0.024835029806246398</v>
       </c>
       <c r="R52" s="7">
         <f t="shared" si="10"/>
-        <v>0.010498536081020702</v>
+        <v>0.010498536081021038</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="11"/>
@@ -6767,7 +6783,7 @@
       </c>
       <c r="W52" s="8">
         <f t="shared" si="15"/>
-        <v>3.6334534715570172E-06</v>
+        <v>3.6334534715570867E-06</v>
       </c>
     </row>
     <row r="53">
@@ -6818,11 +6834,11 @@
       </c>
       <c r="M53" s="4">
         <f t="shared" si="5"/>
-        <v>0.053564950337020606</v>
+        <v>0.05356495033702223</v>
       </c>
       <c r="N53" s="58">
         <f t="shared" si="6"/>
-        <v>24773.609466934977</v>
+        <v>24773.609466935726</v>
       </c>
       <c r="O53" s="58">
         <f t="shared" si="7"/>
@@ -6834,11 +6850,11 @@
       </c>
       <c r="Q53" s="7">
         <f t="shared" si="9"/>
-        <v>0.0071317540482520097</v>
+        <v>0.0071317540482520123</v>
       </c>
       <c r="R53" s="7">
         <f t="shared" si="10"/>
-        <v>0.0042851960269616489</v>
+        <v>0.0042851960269617781</v>
       </c>
       <c r="S53" s="4">
         <f t="shared" si="11"/>
@@ -6858,7 +6874,7 @@
       </c>
       <c r="W53" s="8">
         <f t="shared" si="15"/>
-        <v>1.1290955187733781E-07</v>
+        <v>1.1290955187734002E-07</v>
       </c>
     </row>
     <row r="54">
@@ -6909,11 +6925,11 @@
       </c>
       <c r="M54" s="4">
         <f t="shared" si="5"/>
-        <v>0.13658038189589802</v>
+        <v>0.13658038189590235</v>
       </c>
       <c r="N54" s="58">
         <f t="shared" si="6"/>
-        <v>87549.845903450681</v>
+        <v>87549.845903453461</v>
       </c>
       <c r="O54" s="58">
         <f t="shared" si="7"/>
@@ -6925,11 +6941,11 @@
       </c>
       <c r="Q54" s="7">
         <f t="shared" si="9"/>
-        <v>0.0098845030586611864</v>
+        <v>0.0098845030586611881</v>
       </c>
       <c r="R54" s="7">
         <f t="shared" si="10"/>
-        <v>0.010926430551671843</v>
+        <v>0.01092643055167219</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="11"/>
@@ -6949,7 +6965,7 @@
       </c>
       <c r="W54" s="8">
         <f t="shared" si="15"/>
-        <v>5.8920301748784867E-07</v>
+        <v>5.8920301748786E-07</v>
       </c>
     </row>
     <row r="55">
@@ -7000,11 +7016,11 @@
       </c>
       <c r="M55" s="4">
         <f t="shared" si="5"/>
-        <v>0.13724896700629041</v>
+        <v>0.1372489670062948</v>
       </c>
       <c r="N55" s="58">
         <f t="shared" si="6"/>
-        <v>220988.13398314227</v>
+        <v>220988.13398314931</v>
       </c>
       <c r="O55" s="58">
         <f t="shared" si="7"/>
@@ -7016,11 +7032,11 @@
       </c>
       <c r="Q55" s="7">
         <f t="shared" si="9"/>
-        <v>0.024828337893232841</v>
+        <v>0.024828337893232848</v>
       </c>
       <c r="R55" s="7">
         <f t="shared" si="10"/>
-        <v>0.010979917360503234</v>
+        <v>0.010979917360503584</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="11"/>
@@ -7040,7 +7056,7 @@
       </c>
       <c r="W55" s="8">
         <f t="shared" si="15"/>
-        <v>3.72824655222838E-06</v>
+        <v>3.7282465522284524E-06</v>
       </c>
     </row>
     <row r="56">
@@ -7091,11 +7107,11 @@
       </c>
       <c r="M56" s="4">
         <f t="shared" si="5"/>
-        <v>0.51637686477062494</v>
+        <v>0.51637686477062583</v>
       </c>
       <c r="N56" s="58">
         <f t="shared" si="6"/>
-        <v>296066.18406288594</v>
+        <v>296066.18406288646</v>
       </c>
       <c r="O56" s="58">
         <f t="shared" si="7"/>
@@ -7107,11 +7123,11 @@
       </c>
       <c r="Q56" s="7">
         <f t="shared" si="9"/>
-        <v>0.0088411713301177544</v>
+        <v>0.0088411713301177561</v>
       </c>
       <c r="R56" s="7">
         <f t="shared" si="10"/>
-        <v>0.041310149181649991</v>
+        <v>0.041310149181650067</v>
       </c>
       <c r="S56" s="4">
         <f t="shared" si="11"/>
@@ -7131,7 +7147,7 @@
       </c>
       <c r="W56" s="8">
         <f t="shared" si="15"/>
-        <v>2.8871965190477771E-06</v>
+        <v>2.8871965190477797E-06</v>
       </c>
     </row>
     <row r="57">
@@ -7182,11 +7198,11 @@
       </c>
       <c r="M57" s="4">
         <f t="shared" si="5"/>
-        <v>0.056603291164553947</v>
+        <v>0.056603291164555675</v>
       </c>
       <c r="N57" s="58">
         <f t="shared" si="6"/>
-        <v>34232.190116486432</v>
+        <v>34232.190116487473</v>
       </c>
       <c r="O57" s="58">
         <f t="shared" si="7"/>
@@ -7198,11 +7214,11 @@
       </c>
       <c r="Q57" s="7">
         <f t="shared" si="9"/>
-        <v>0.00932568578716861</v>
+        <v>0.0093256857871686118</v>
       </c>
       <c r="R57" s="7">
         <f t="shared" si="10"/>
-        <v>0.0045282632931643169</v>
+        <v>0.0045282632931644539</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="11"/>
@@ -7222,7 +7238,7 @@
       </c>
       <c r="W57" s="8">
         <f t="shared" si="15"/>
-        <v>1.9995687653436624E-07</v>
+        <v>1.9995687653437027E-07</v>
       </c>
     </row>
     <row r="58">
@@ -7273,11 +7289,11 @@
       </c>
       <c r="M58" s="4">
         <f t="shared" si="5"/>
-        <v>0.072122815268463369</v>
+        <v>0.07212281526846305</v>
       </c>
       <c r="N58" s="58">
         <f t="shared" si="6"/>
-        <v>86972.902932239973</v>
+        <v>86972.90293223958</v>
       </c>
       <c r="O58" s="58">
         <f t="shared" si="7"/>
@@ -7289,11 +7305,11 @@
       </c>
       <c r="Q58" s="7">
         <f t="shared" si="9"/>
-        <v>0.01859512371060533</v>
+        <v>0.018595123710605337</v>
       </c>
       <c r="R58" s="7">
         <f t="shared" si="10"/>
-        <v>0.0057698252214770695</v>
+        <v>0.0057698252214770434</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="11"/>
@@ -7313,7 +7329,7 @@
       </c>
       <c r="W58" s="8">
         <f t="shared" si="15"/>
-        <v>1.0203223130801761E-06</v>
+        <v>1.0203223130801737E-06</v>
       </c>
     </row>
     <row r="59">
@@ -7364,11 +7380,11 @@
       </c>
       <c r="M59" s="4">
         <f t="shared" si="5"/>
-        <v>0.074110716390273404</v>
+        <v>0.074110716390273085</v>
       </c>
       <c r="N59" s="58">
         <f t="shared" si="6"/>
-        <v>160530.92633010566</v>
+        <v>160530.92633010497</v>
       </c>
       <c r="O59" s="58">
         <f t="shared" si="7"/>
@@ -7380,11 +7396,11 @@
       </c>
       <c r="Q59" s="7">
         <f t="shared" si="9"/>
-        <v>0.033401462052448268</v>
+        <v>0.033401462052448275</v>
       </c>
       <c r="R59" s="7">
         <f t="shared" si="10"/>
-        <v>0.0059288573112218721</v>
+        <v>0.005928857311221847</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="11"/>
@@ -7404,7 +7420,7 @@
       </c>
       <c r="W59" s="8">
         <f t="shared" si="15"/>
-        <v>3.3499352168490177E-06</v>
+        <v>3.3499352168490101E-06</v>
       </c>
     </row>
     <row r="60">
@@ -7455,11 +7471,11 @@
       </c>
       <c r="M60" s="4">
         <f t="shared" si="5"/>
-        <v>0.14906063728988958</v>
+        <v>0.14906063728989433</v>
       </c>
       <c r="N60" s="58">
         <f t="shared" si="6"/>
-        <v>119374.3833119558</v>
+        <v>119374.3833119596</v>
       </c>
       <c r="O60" s="58">
         <f t="shared" si="7"/>
@@ -7471,11 +7487,11 @@
       </c>
       <c r="Q60" s="7">
         <f t="shared" si="9"/>
-        <v>0.012349118105984778</v>
+        <v>0.012349118105984781</v>
       </c>
       <c r="R60" s="7">
         <f t="shared" si="10"/>
-        <v>0.011924850983191166</v>
+        <v>0.011924850983191545</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="11"/>
@@ -7495,7 +7511,7 @@
       </c>
       <c r="W60" s="8">
         <f t="shared" si="15"/>
-        <v>9.693007368715392E-07</v>
+        <v>9.6930073687155847E-07</v>
       </c>
     </row>
     <row r="61">
@@ -7546,11 +7562,11 @@
       </c>
       <c r="M61" s="4">
         <f t="shared" si="5"/>
-        <v>0.19196433149558803</v>
+        <v>0.19196433149559258</v>
       </c>
       <c r="N61" s="58">
         <f t="shared" si="6"/>
-        <v>153559.6059472136</v>
+        <v>153559.60594721721</v>
       </c>
       <c r="O61" s="58">
         <f t="shared" si="7"/>
@@ -7562,11 +7578,11 @@
       </c>
       <c r="Q61" s="7">
         <f t="shared" si="9"/>
-        <v>0.012335144034740545</v>
+        <v>0.012335144034740548</v>
       </c>
       <c r="R61" s="7">
         <f t="shared" si="10"/>
-        <v>0.015357146519647045</v>
+        <v>0.015357146519647405</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="11"/>
@@ -7586,7 +7602,7 @@
       </c>
       <c r="W61" s="8">
         <f t="shared" si="15"/>
-        <v>1.2625418002632784E-06</v>
+        <v>1.262541800263297E-06</v>
       </c>
     </row>
     <row r="62">
@@ -7819,11 +7835,11 @@
       </c>
       <c r="M64" s="4">
         <f t="shared" si="5"/>
-        <v>0.51637686477062505</v>
+        <v>0.51637686477062605</v>
       </c>
       <c r="N64" s="58">
         <f t="shared" si="6"/>
-        <v>94857.651775153237</v>
+        <v>94857.651775153427</v>
       </c>
       <c r="O64" s="58">
         <f t="shared" si="7"/>
@@ -7835,11 +7851,11 @@
       </c>
       <c r="Q64" s="7">
         <f t="shared" si="9"/>
-        <v>0.0028326529555251206</v>
+        <v>0.0028326529555251214</v>
       </c>
       <c r="R64" s="7">
         <f t="shared" si="10"/>
-        <v>0.041310149181649998</v>
+        <v>0.041310149181650081</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="11"/>
@@ -7859,7 +7875,7 @@
       </c>
       <c r="W64" s="8">
         <f t="shared" si="15"/>
-        <v>2.9637629991245727E-07</v>
+        <v>2.963762999124577E-07</v>
       </c>
     </row>
     <row r="65">
@@ -7910,11 +7926,11 @@
       </c>
       <c r="M65" s="4">
         <f t="shared" si="5"/>
-        <v>0.18627421825361448</v>
+        <v>0.18627421825361668</v>
       </c>
       <c r="N65" s="58">
         <f t="shared" si="6"/>
-        <v>91442.684327885057</v>
+        <v>91442.684327886149</v>
       </c>
       <c r="O65" s="58">
         <f t="shared" si="7"/>
@@ -7926,11 +7942,11 @@
       </c>
       <c r="Q65" s="7">
         <f t="shared" si="9"/>
-        <v>0.0075697928285774234</v>
+        <v>0.0075697928285774251</v>
       </c>
       <c r="R65" s="7">
         <f t="shared" si="10"/>
-        <v>0.014901937460289158</v>
+        <v>0.014901937460289335</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="11"/>
@@ -7950,7 +7966,7 @@
       </c>
       <c r="W65" s="8">
         <f t="shared" si="15"/>
-        <v>5.2590411713838064E-07</v>
+        <v>5.2590411713838435E-07</v>
       </c>
     </row>
     <row r="66">
@@ -8001,11 +8017,11 @@
       </c>
       <c r="M66" s="4">
         <f t="shared" si="5"/>
-        <v>0.2482260730651808</v>
+        <v>0.24822607306517999</v>
       </c>
       <c r="N66" s="58">
         <f t="shared" si="6"/>
-        <v>488821.26300040982</v>
+        <v>488821.26300040825</v>
       </c>
       <c r="O66" s="58">
         <f t="shared" si="7"/>
@@ -8017,11 +8033,11 @@
       </c>
       <c r="Q66" s="7">
         <f t="shared" si="9"/>
-        <v>0.030366201452386186</v>
+        <v>0.030366201452386197</v>
       </c>
       <c r="R66" s="7">
         <f t="shared" si="10"/>
-        <v>0.019858085845214465</v>
+        <v>0.019858085845214399</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="11"/>
@@ -8041,7 +8057,7 @@
       </c>
       <c r="W66" s="8">
         <f t="shared" si="15"/>
-        <v>1.1280628556397595E-05</v>
+        <v>1.1280628556397578E-05</v>
       </c>
     </row>
     <row r="67">
@@ -8092,11 +8108,11 @@
       </c>
       <c r="M67" s="4">
         <f t="shared" si="5"/>
-        <v>0.079156430670852235</v>
+        <v>0.079156430670854649</v>
       </c>
       <c r="N67" s="58">
         <f t="shared" si="6"/>
-        <v>184611.81666484047</v>
+        <v>184611.81666484609</v>
       </c>
       <c r="O67" s="58">
         <f t="shared" si="7"/>
@@ -8108,11 +8124,11 @@
       </c>
       <c r="Q67" s="7">
         <f t="shared" si="9"/>
-        <v>0.035963427048857952</v>
+        <v>0.035963427048857965</v>
       </c>
       <c r="R67" s="7">
         <f t="shared" si="10"/>
-        <v>0.0063325144536681794</v>
+        <v>0.006332514453668372</v>
       </c>
       <c r="S67" s="4">
         <f t="shared" si="11"/>
@@ -8132,7 +8148,7 @@
       </c>
       <c r="W67" s="8">
         <f t="shared" si="15"/>
-        <v>3.734652348802728E-06</v>
+        <v>3.7346523488028127E-06</v>
       </c>
     </row>
     <row r="68">
@@ -8183,11 +8199,11 @@
       </c>
       <c r="M68" s="4">
         <f t="shared" si="5"/>
-        <v>0.085771363108874094</v>
+        <v>0.085771363108876703</v>
       </c>
       <c r="N68" s="58">
         <f t="shared" si="6"/>
-        <v>137440.03224565985</v>
+        <v>137440.03224566401</v>
       </c>
       <c r="O68" s="58">
         <f t="shared" si="7"/>
@@ -8199,11 +8215,11 @@
       </c>
       <c r="Q68" s="7">
         <f t="shared" si="9"/>
-        <v>0.024709201620262029</v>
+        <v>0.024709201620262036</v>
       </c>
       <c r="R68" s="7">
         <f t="shared" si="10"/>
-        <v>0.0068617090487099273</v>
+        <v>0.0068617090487101354</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" si="11"/>
@@ -8223,7 +8239,7 @@
       </c>
       <c r="W68" s="8">
         <f t="shared" si="15"/>
-        <v>1.8683249656705043E-06</v>
+        <v>1.8683249656705464E-06</v>
       </c>
     </row>
     <row r="69">
@@ -8274,11 +8290,11 @@
       </c>
       <c r="M69" s="4">
         <f t="shared" si="5"/>
-        <v>0.062558439186519307</v>
+        <v>0.062558439186521209</v>
       </c>
       <c r="N69" s="58">
         <f t="shared" si="6"/>
-        <v>20030.322496377998</v>
+        <v>20030.322496378605</v>
       </c>
       <c r="O69" s="58">
         <f t="shared" si="7"/>
@@ -8290,11 +8306,11 @@
       </c>
       <c r="Q69" s="7">
         <f t="shared" si="9"/>
-        <v>0.0049373033790930968</v>
+        <v>0.0049373033790930977</v>
       </c>
       <c r="R69" s="7">
         <f t="shared" si="10"/>
-        <v>0.0050046751349215445</v>
+        <v>0.0050046751349216963</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="11"/>
@@ -8314,7 +8330,7 @@
       </c>
       <c r="W69" s="8">
         <f t="shared" si="15"/>
-        <v>5.9834446419962146E-08</v>
+        <v>5.9834446419963377E-08</v>
       </c>
     </row>
     <row r="70">
@@ -8365,11 +8381,11 @@
       </c>
       <c r="M70" s="4">
         <f t="shared" si="5"/>
-        <v>0.46831468868518866</v>
+        <v>0.46831468868519338</v>
       </c>
       <c r="N70" s="58">
         <f t="shared" si="6"/>
-        <v>661474.22498693352</v>
+        <v>661474.22498694016</v>
       </c>
       <c r="O70" s="58">
         <f t="shared" si="7"/>
@@ -8381,11 +8397,11 @@
       </c>
       <c r="Q70" s="7">
         <f t="shared" si="9"/>
-        <v>0.021780253155849361</v>
+        <v>0.021780253155849368</v>
       </c>
       <c r="R70" s="7">
         <f t="shared" si="10"/>
-        <v>0.037465175094815097</v>
+        <v>0.037465175094815471</v>
       </c>
       <c r="S70" s="4">
         <f t="shared" si="11"/>
@@ -8405,7 +8421,7 @@
       </c>
       <c r="W70" s="8">
         <f t="shared" si="15"/>
-        <v>1.4190395532612435E-05</v>
+        <v>1.4190395532612501E-05</v>
       </c>
     </row>
     <row r="71">
@@ -8456,11 +8472,11 @@
       </c>
       <c r="M71" s="4">
         <f t="shared" si="5"/>
-        <v>0.022257665155927465</v>
+        <v>0.022257665155927742</v>
       </c>
       <c r="N71" s="58">
         <f t="shared" si="6"/>
-        <v>1005.0647061470917</v>
+        <v>1005.0647061471042</v>
       </c>
       <c r="O71" s="58">
         <f t="shared" si="7"/>
@@ -8472,11 +8488,11 @@
       </c>
       <c r="Q71" s="7">
         <f t="shared" si="9"/>
-        <v>0.00069630929855430345</v>
+        <v>0.00069630929855430367</v>
       </c>
       <c r="R71" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017806132124741972</v>
+        <v>0.0017806132124742193</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" si="11"/>
@@ -8496,7 +8512,7 @@
       </c>
       <c r="W71" s="8">
         <f t="shared" si="15"/>
-        <v>3.7128124947110859E-10</v>
+        <v>3.7128124947111252E-10</v>
       </c>
     </row>
     <row r="72">
@@ -8547,11 +8563,11 @@
       </c>
       <c r="M72" s="4">
         <f t="shared" si="5"/>
-        <v>0.021506489878664554</v>
+        <v>0.021506489878664822</v>
       </c>
       <c r="N72" s="58">
         <f t="shared" si="6"/>
-        <v>554.55239460061091</v>
+        <v>554.55239460061784</v>
       </c>
       <c r="O72" s="58">
         <f t="shared" si="7"/>
@@ -8563,11 +8579,11 @@
       </c>
       <c r="Q72" s="7">
         <f t="shared" si="9"/>
-        <v>0.00039761323118451414</v>
+        <v>0.0003976132311845143</v>
       </c>
       <c r="R72" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017205191902931643</v>
+        <v>0.0017205191902931857</v>
       </c>
       <c r="S72" s="4">
         <f t="shared" si="11"/>
@@ -8587,7 +8603,7 @@
       </c>
       <c r="W72" s="8">
         <f t="shared" si="15"/>
-        <v>1.1796694191105473E-10</v>
+        <v>1.1796694191105592E-10</v>
       </c>
     </row>
     <row r="73">
@@ -8638,11 +8654,11 @@
       </c>
       <c r="M73" s="4">
         <f t="shared" si="5"/>
-        <v>0.021835129062467078</v>
+        <v>0.021835129062467352</v>
       </c>
       <c r="N73" s="58">
         <f t="shared" si="6"/>
-        <v>122.1233702713841</v>
+        <v>122.12337027138565</v>
       </c>
       <c r="O73" s="58">
         <f t="shared" si="7"/>
@@ -8654,11 +8670,11 @@
       </c>
       <c r="Q73" s="7">
         <f t="shared" si="9"/>
-        <v>8.6244378063309984E-05</v>
+        <v>8.6244378063310011E-05</v>
       </c>
       <c r="R73" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017468103249973662</v>
+        <v>0.0017468103249973885</v>
       </c>
       <c r="S73" s="4">
         <f t="shared" si="11"/>
@@ -8678,7 +8694,7 @@
       </c>
       <c r="W73" s="8">
         <f t="shared" si="15"/>
-        <v>5.6138713044470281E-12</v>
+        <v>5.6138713044470863E-12</v>
       </c>
     </row>
     <row r="74">
@@ -8729,11 +8745,11 @@
       </c>
       <c r="M74" s="4">
         <f t="shared" si="5"/>
-        <v>0.021506489878664554</v>
+        <v>0.021506489878664822</v>
       </c>
       <c r="N74" s="58">
         <f t="shared" si="6"/>
-        <v>216.97063186777379</v>
+        <v>216.97063186777646</v>
       </c>
       <c r="O74" s="58">
         <f t="shared" si="7"/>
@@ -8745,11 +8761,11 @@
       </c>
       <c r="Q74" s="7">
         <f t="shared" si="9"/>
-        <v>0.00015556761606127991</v>
+        <v>0.00015556761606127996</v>
       </c>
       <c r="R74" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017205191902931647</v>
+        <v>0.0017205191902931857</v>
       </c>
       <c r="S74" s="4">
         <f t="shared" si="11"/>
@@ -8769,7 +8785,7 @@
       </c>
       <c r="W74" s="8">
         <f t="shared" si="15"/>
-        <v>1.8058308117087916E-11</v>
+        <v>1.8058308117088094E-11</v>
       </c>
     </row>
     <row r="75">
@@ -8820,11 +8836,11 @@
       </c>
       <c r="M75" s="4">
         <f t="shared" si="5"/>
-        <v>0.024605087897374079</v>
+        <v>0.024605087897374388</v>
       </c>
       <c r="N75" s="58">
         <f t="shared" si="6"/>
-        <v>815.79580271585553</v>
+        <v>815.79580271586588</v>
       </c>
       <c r="O75" s="58">
         <f t="shared" si="7"/>
@@ -8836,11 +8852,11 @@
       </c>
       <c r="Q75" s="7">
         <f t="shared" si="9"/>
-        <v>0.00051126295114692778</v>
+        <v>0.00051126295114692789</v>
       </c>
       <c r="R75" s="7">
         <f t="shared" si="10"/>
-        <v>0.0019684070317899263</v>
+        <v>0.001968407031789951</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="11"/>
@@ -8860,7 +8876,7 @@
       </c>
       <c r="W75" s="8">
         <f t="shared" si="15"/>
-        <v>2.1617378760528286E-10</v>
+        <v>2.1617378760528516E-10</v>
       </c>
     </row>
     <row r="76">
@@ -8911,11 +8927,11 @@
       </c>
       <c r="M76" s="4">
         <f t="shared" si="5"/>
-        <v>0.43208677722977379</v>
+        <v>0.43208677722977817</v>
       </c>
       <c r="N76" s="58">
         <f t="shared" si="6"/>
-        <v>598284.55053442565</v>
+        <v>598284.55053443171</v>
       </c>
       <c r="O76" s="58">
         <f t="shared" si="7"/>
@@ -8927,11 +8943,11 @@
       </c>
       <c r="Q76" s="7">
         <f t="shared" si="9"/>
-        <v>0.021351313085669059</v>
+        <v>0.021351313085669066</v>
       </c>
       <c r="R76" s="7">
         <f t="shared" si="10"/>
-        <v>0.034566942178381903</v>
+        <v>0.03456694217838225</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="11"/>
@@ -8951,7 +8967,7 @@
       </c>
       <c r="W76" s="8">
         <f t="shared" si="15"/>
-        <v>1.3206290705104939E-05</v>
+        <v>1.3206290705104996E-05</v>
       </c>
     </row>
     <row r="77">
@@ -9002,11 +9018,11 @@
       </c>
       <c r="M77" s="4">
         <f t="shared" si="5"/>
-        <v>0.024605087897374079</v>
+        <v>0.024605087897374388</v>
       </c>
       <c r="N77" s="58">
         <f t="shared" si="6"/>
-        <v>519.17290554242277</v>
+        <v>519.17290554242925</v>
       </c>
       <c r="O77" s="58">
         <f t="shared" si="7"/>
@@ -9018,11 +9034,11 @@
       </c>
       <c r="Q77" s="7">
         <f t="shared" si="9"/>
-        <v>0.00032536802832215076</v>
+        <v>0.00032536802832215086</v>
       </c>
       <c r="R77" s="7">
         <f t="shared" si="10"/>
-        <v>0.0019684070317899263</v>
+        <v>0.001968407031789951</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="11"/>
@@ -9042,7 +9058,7 @@
       </c>
       <c r="W77" s="8">
         <f t="shared" si="15"/>
-        <v>8.7551610232822375E-11</v>
+        <v>8.7551610232823318E-11</v>
       </c>
     </row>
     <row r="78">
@@ -9093,11 +9109,11 @@
       </c>
       <c r="M78" s="4">
         <f t="shared" si="5"/>
-        <v>0.0090182008941685887</v>
+        <v>0.0090182008941687031</v>
       </c>
       <c r="N78" s="58">
         <f t="shared" si="6"/>
-        <v>1632.6626074525466</v>
+        <v>1632.6626074525673</v>
       </c>
       <c r="O78" s="58">
         <f t="shared" si="7"/>
@@ -9109,11 +9125,11 @@
       </c>
       <c r="Q78" s="7">
         <f t="shared" si="9"/>
-        <v>0.002791671529532394</v>
+        <v>0.0027916715295323948</v>
       </c>
       <c r="R78" s="7">
         <f t="shared" si="10"/>
-        <v>0.00072145607153348713</v>
+        <v>0.00072145607153349623</v>
       </c>
       <c r="S78" s="4">
         <f t="shared" si="11"/>
@@ -9133,7 +9149,7 @@
       </c>
       <c r="W78" s="8">
         <f t="shared" si="15"/>
-        <v>3.2758094204867296E-09</v>
+        <v>3.2758094204867548E-09</v>
       </c>
     </row>
     <row r="79">
@@ -9184,11 +9200,11 @@
       </c>
       <c r="M79" s="4">
         <f t="shared" si="5"/>
-        <v>0.0090182008941685887</v>
+        <v>0.0090182008941687031</v>
       </c>
       <c r="N79" s="58">
         <f t="shared" si="6"/>
-        <v>405.436812810888</v>
+        <v>405.43681281089317</v>
       </c>
       <c r="O79" s="58">
         <f t="shared" si="7"/>
@@ -9200,11 +9216,11 @@
       </c>
       <c r="Q79" s="7">
         <f t="shared" si="9"/>
-        <v>0.00069325187101243013</v>
+        <v>0.00069325187101243035</v>
       </c>
       <c r="R79" s="7">
         <f t="shared" si="10"/>
-        <v>0.00072145607153348702</v>
+        <v>0.00072145607153349623</v>
       </c>
       <c r="S79" s="4">
         <f t="shared" si="11"/>
@@ -9224,7 +9240,7 @@
       </c>
       <c r="W79" s="8">
         <f t="shared" si="15"/>
-        <v>2.0200963933023613E-10</v>
+        <v>2.0200963933023771E-10</v>
       </c>
     </row>
     <row r="80">
@@ -9275,11 +9291,11 @@
       </c>
       <c r="M80" s="4">
         <f t="shared" si="5"/>
-        <v>0.0090182008941685887</v>
+        <v>0.0090182008941687031</v>
       </c>
       <c r="N80" s="58">
         <f t="shared" si="6"/>
-        <v>6483.8808784287539</v>
+        <v>6483.8808784288358</v>
       </c>
       <c r="O80" s="58">
         <f t="shared" si="7"/>
@@ -9291,11 +9307,11 @@
       </c>
       <c r="Q80" s="7">
         <f t="shared" si="9"/>
-        <v>0.011086715385386288</v>
+        <v>0.011086715385386291</v>
       </c>
       <c r="R80" s="7">
         <f t="shared" si="10"/>
-        <v>0.00072145607153348713</v>
+        <v>0.00072145607153349623</v>
       </c>
       <c r="S80" s="4">
         <f t="shared" si="11"/>
@@ -9315,7 +9331,7 @@
       </c>
       <c r="W80" s="8">
         <f t="shared" si="15"/>
-        <v>5.1664923387542672E-08</v>
+        <v>5.1664923387543062E-08</v>
       </c>
     </row>
     <row r="81">
@@ -9366,11 +9382,11 @@
       </c>
       <c r="M81" s="4">
         <f t="shared" si="5"/>
-        <v>0.021835129062467078</v>
+        <v>0.021835129062467352</v>
       </c>
       <c r="N81" s="58">
         <f t="shared" si="6"/>
-        <v>994.69009875027496</v>
+        <v>994.69009875028746</v>
       </c>
       <c r="O81" s="58">
         <f t="shared" si="7"/>
@@ -9382,11 +9398,11 @@
       </c>
       <c r="Q81" s="7">
         <f t="shared" si="9"/>
-        <v>0.00070245710335224264</v>
+        <v>0.00070245710335224286</v>
       </c>
       <c r="R81" s="7">
         <f t="shared" si="10"/>
-        <v>0.0017468103249973662</v>
+        <v>0.0017468103249973883</v>
       </c>
       <c r="S81" s="4">
         <f t="shared" si="11"/>
@@ -9406,7 +9422,7 @@
       </c>
       <c r="W81" s="8">
         <f t="shared" si="15"/>
-        <v>3.724264180285014E-10</v>
+        <v>3.7242641802850528E-10</v>
       </c>
     </row>
     <row r="82">
@@ -9457,11 +9473,11 @@
       </c>
       <c r="M82" s="4">
         <f t="shared" si="5"/>
-        <v>0.063166107352025991</v>
+        <v>0.063166107352027906</v>
       </c>
       <c r="N82" s="58">
         <f t="shared" si="6"/>
-        <v>20176.866788362498</v>
+        <v>20176.86678836311</v>
       </c>
       <c r="O82" s="58">
         <f t="shared" si="7"/>
@@ -9473,11 +9489,11 @@
       </c>
       <c r="Q82" s="7">
         <f t="shared" si="9"/>
-        <v>0.0049255801397102873</v>
+        <v>0.0049255801397102882</v>
       </c>
       <c r="R82" s="7">
         <f t="shared" si="10"/>
-        <v>0.0050532885881620793</v>
+        <v>0.0050532885881622329</v>
       </c>
       <c r="S82" s="4">
         <f t="shared" si="11"/>
@@ -9497,7 +9513,7 @@
       </c>
       <c r="W82" s="8">
         <f t="shared" si="15"/>
-        <v>5.9935248374435719E-08</v>
+        <v>5.9935248374436936E-08</v>
       </c>
     </row>
     <row r="83">
@@ -9548,11 +9564,11 @@
       </c>
       <c r="M83" s="4">
         <f t="shared" si="5"/>
-        <v>0.029936681937290471</v>
+        <v>0.029936681937290162</v>
       </c>
       <c r="N83" s="58">
         <f t="shared" si="6"/>
-        <v>58926.899389578524</v>
+        <v>58926.89938957792</v>
       </c>
       <c r="O83" s="58">
         <f t="shared" si="7"/>
@@ -9564,11 +9580,11 @@
       </c>
       <c r="Q83" s="7">
         <f t="shared" si="9"/>
-        <v>0.030352726154202318</v>
+        <v>0.030352726154202325</v>
       </c>
       <c r="R83" s="7">
         <f t="shared" si="10"/>
-        <v>0.0023949345549832374</v>
+        <v>0.0023949345549832131</v>
       </c>
       <c r="S83" s="4">
         <f t="shared" si="11"/>
@@ -9588,7 +9604,7 @@
       </c>
       <c r="W83" s="8">
         <f t="shared" si="15"/>
-        <v>1.2878343364485184E-06</v>
+        <v>1.2878343364485118E-06</v>
       </c>
     </row>
     <row r="84">
@@ -9639,11 +9655,11 @@
       </c>
       <c r="M84" s="4">
         <f t="shared" si="5"/>
-        <v>0.55174479292914236</v>
+        <v>0.55174479292914325</v>
       </c>
       <c r="N84" s="58">
         <f t="shared" si="6"/>
-        <v>421674.26846485469</v>
+        <v>421674.26846485533</v>
       </c>
       <c r="O84" s="58">
         <f t="shared" si="7"/>
@@ -9655,11 +9671,11 @@
       </c>
       <c r="Q84" s="7">
         <f t="shared" si="9"/>
-        <v>0.011784919866135158</v>
+        <v>0.011784919866135162</v>
       </c>
       <c r="R84" s="7">
         <f t="shared" si="10"/>
-        <v>0.044139583434331393</v>
+        <v>0.044139583434331463</v>
       </c>
       <c r="S84" s="4">
         <f t="shared" si="11"/>
@@ -9679,7 +9695,7 @@
       </c>
       <c r="W84" s="8">
         <f t="shared" si="15"/>
-        <v>5.2580128363258839E-06</v>
+        <v>5.2580128363258907E-06</v>
       </c>
     </row>
     <row r="85">
@@ -69051,38 +69067,37 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.71" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.86" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.86" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.29" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.57" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.71" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.86" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.57" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.71" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.29" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.86" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.14" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.57" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.57" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.29" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.14" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.29" style="58" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="58" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.43" style="58" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.14" style="4"/>
+    <col min="1" max="1" width="11.71094" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85156" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.00391" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85156" style="4" customWidth="1"/>
+    <col min="5" max="5" width="63.85156" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.00391" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.57422" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.71094" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85156" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.574219" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.71094" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28125" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85156" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.003906" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.14063" style="58" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.57422" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.57422" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.00391" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.14063" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.28125" style="58" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.00391" style="58" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42188" style="58" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
